--- a/Sample_table.xlsx
+++ b/Sample_table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanbe\Dropbox (Cambridge University)\patternize_Heliconius_forewing_band\Heliconius_forwing_band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5704195D-A0F5-4CB6-A1A2-1B8EF8435721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6E3464-AA1F-496B-B76C-809AC5BAC10A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2F34A29-253E-4216-91E6-BA6293E211B7}"/>
   </bookViews>
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13CBDC5-3618-42CC-AD5D-CAAF8C118CBE}">
   <dimension ref="A1:R287"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M271" sqref="M271"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/Sample_table.xlsx
+++ b/Sample_table.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vanbe\Dropbox (Cambridge University)\patternize_Heliconius_forewing_band\Heliconius_forwing_band\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A6E3464-AA1F-496B-B76C-809AC5BAC10A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{799C3992-12C6-41B9-8B6E-08F606CB3C7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C2F34A29-253E-4216-91E6-BA6293E211B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" concurrentCalc="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="281">
   <si>
     <t>rosina</t>
   </si>
@@ -231,9 +231,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>BRIAN</t>
   </si>
   <si>
     <t>CAM008863</t>
@@ -886,7 +883,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="170" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.000000"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -999,7 +996,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1007,22 +1004,22 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="170" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="170" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -1369,8 +1366,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C13CBDC5-3618-42CC-AD5D-CAAF8C118CBE}">
   <dimension ref="A1:R287"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A145" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E156" sqref="E156:G156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1410,18 +1407,18 @@
         <v>45</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="26" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D2" s="31" t="s">
         <v>59</v>
@@ -1439,13 +1436,13 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D3" s="31" t="s">
         <v>59</v>
@@ -1463,13 +1460,13 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B4" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="27" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D4" s="31" t="s">
         <v>60</v>
@@ -1487,13 +1484,13 @@
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B5" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D5" s="31" t="s">
         <v>59</v>
@@ -1511,13 +1508,13 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B6" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="27" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D6" s="31" t="s">
         <v>60</v>
@@ -1535,13 +1532,13 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C7" s="27" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D7" s="31" t="s">
         <v>59</v>
@@ -1560,13 +1557,13 @@
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B8" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="27" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D8" s="31" t="s">
         <v>60</v>
@@ -1586,13 +1583,13 @@
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B9" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C9" s="27" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D9" s="31" t="s">
         <v>60</v>
@@ -1610,13 +1607,13 @@
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B10" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="27" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D10" s="31" t="s">
         <v>59</v>
@@ -1634,13 +1631,13 @@
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B11" s="13" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="27" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D11" s="31" t="s">
         <v>60</v>
@@ -1658,13 +1655,13 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B12" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D12" s="31" t="s">
         <v>59</v>
@@ -1684,13 +1681,13 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C13" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D13" s="31" t="s">
         <v>59</v>
@@ -1710,13 +1707,13 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D14" s="31" t="s">
         <v>59</v>
@@ -1736,13 +1733,13 @@
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C15" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D15" s="31" t="s">
         <v>59</v>
@@ -1762,13 +1759,13 @@
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C16" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D16" s="31" t="s">
         <v>59</v>
@@ -1788,13 +1785,13 @@
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A17" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C17" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>60</v>
@@ -1814,13 +1811,13 @@
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A18" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C18" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>59</v>
@@ -1840,13 +1837,13 @@
     </row>
     <row r="19" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A19" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C19" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>59</v>
@@ -1867,13 +1864,13 @@
     </row>
     <row r="20" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A20" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C20" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>59</v>
@@ -1893,13 +1890,13 @@
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B21" s="13" t="s">
         <v>25</v>
       </c>
       <c r="C21" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>59</v>
@@ -1919,7 +1916,7 @@
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A22" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B22" s="13" t="s">
         <v>23</v>
@@ -1946,7 +1943,7 @@
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A23" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B23" s="13" t="s">
         <v>23</v>
@@ -1973,7 +1970,7 @@
     </row>
     <row r="24" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A24" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B24" s="13" t="s">
         <v>23</v>
@@ -2000,7 +1997,7 @@
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A25" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B25" s="13" t="s">
         <v>23</v>
@@ -2027,7 +2024,7 @@
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A26" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>23</v>
@@ -2054,7 +2051,7 @@
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A27" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B27" s="13" t="s">
         <v>23</v>
@@ -2081,7 +2078,7 @@
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A28" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" s="13" t="s">
         <v>23</v>
@@ -2108,7 +2105,7 @@
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A29" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B29" s="13" t="s">
         <v>23</v>
@@ -2135,7 +2132,7 @@
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A30" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B30" s="13" t="s">
         <v>23</v>
@@ -2162,7 +2159,7 @@
     </row>
     <row r="31" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A31" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>23</v>
@@ -2189,7 +2186,7 @@
     </row>
     <row r="32" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A32" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B32" s="13" t="s">
         <v>23</v>
@@ -2219,7 +2216,7 @@
     </row>
     <row r="33" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A33" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B33" s="13" t="s">
         <v>27</v>
@@ -2247,7 +2244,7 @@
     </row>
     <row r="34" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A34" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>27</v>
@@ -2275,24 +2272,26 @@
     </row>
     <row r="35" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A35" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C35" s="28" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D35" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E35" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G35" s="15"/>
+      <c r="E35" s="14">
+        <v>-5.2949900000000003</v>
+      </c>
+      <c r="F35" s="14">
+        <v>-78.381</v>
+      </c>
+      <c r="G35" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H35" s="15"/>
       <c r="M35" s="9"/>
       <c r="N35" s="9"/>
@@ -2301,24 +2300,26 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A36" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C36" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E36" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G36" s="15"/>
+      <c r="E36" s="14">
+        <v>-5.2949900000000003</v>
+      </c>
+      <c r="F36" s="14">
+        <v>-78.381</v>
+      </c>
+      <c r="G36" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H36" s="15"/>
       <c r="M36" s="9"/>
       <c r="N36" s="9"/>
@@ -2327,24 +2328,26 @@
     </row>
     <row r="37" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A37" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C37" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F37" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G37" s="15"/>
+      <c r="E37" s="14">
+        <v>-5.2949900000000003</v>
+      </c>
+      <c r="F37" s="14">
+        <v>-78.381</v>
+      </c>
+      <c r="G37" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H37" s="15"/>
       <c r="M37" s="9"/>
       <c r="N37" s="9"/>
@@ -2353,24 +2356,26 @@
     </row>
     <row r="38" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A38" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C38" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E38" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G38" s="15"/>
+      <c r="E38" s="14">
+        <v>-5.2949900000000003</v>
+      </c>
+      <c r="F38" s="14">
+        <v>-78.381</v>
+      </c>
+      <c r="G38" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H38" s="15"/>
       <c r="M38" s="9"/>
       <c r="N38" s="9"/>
@@ -2379,24 +2384,26 @@
     </row>
     <row r="39" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A39" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C39" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E39" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F39" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G39" s="15"/>
+      <c r="E39" s="14">
+        <v>-5.3885199999999998</v>
+      </c>
+      <c r="F39" s="14">
+        <v>-78.451139999999995</v>
+      </c>
+      <c r="G39" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H39" s="15"/>
       <c r="M39" s="9"/>
       <c r="N39" s="9"/>
@@ -2405,24 +2412,26 @@
     </row>
     <row r="40" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A40" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C40" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E40" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G40" s="15"/>
+      <c r="E40" s="14">
+        <v>-5.3885199999999998</v>
+      </c>
+      <c r="F40" s="14">
+        <v>-78.451139999999995</v>
+      </c>
+      <c r="G40" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H40" s="15"/>
       <c r="M40" s="9"/>
       <c r="N40" s="9"/>
@@ -2431,24 +2440,26 @@
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A41" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C41" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E41" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G41" s="15"/>
+      <c r="E41" s="14">
+        <v>-5.37967</v>
+      </c>
+      <c r="F41" s="14">
+        <v>-78.45478</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H41" s="15"/>
       <c r="M41" s="9"/>
       <c r="N41" s="9"/>
@@ -2457,24 +2468,26 @@
     </row>
     <row r="42" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A42" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>27</v>
       </c>
       <c r="C42" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E42" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G42" s="15"/>
+      <c r="E42" s="14">
+        <v>-5.4446599999999998</v>
+      </c>
+      <c r="F42" s="14">
+        <v>-78.483609999999999</v>
+      </c>
+      <c r="G42" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H42" s="15"/>
       <c r="M42" s="9"/>
       <c r="N42" s="9"/>
@@ -2483,13 +2496,13 @@
     </row>
     <row r="43" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A43" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C43" s="28" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D43" s="32" t="s">
         <v>60</v>
@@ -2510,13 +2523,13 @@
     </row>
     <row r="44" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A44" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B44" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C44" s="27" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D44" s="31" t="s">
         <v>59</v>
@@ -2537,13 +2550,13 @@
     </row>
     <row r="45" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A45" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B45" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C45" s="27" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>59</v>
@@ -2564,13 +2577,13 @@
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A46" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C46" s="27" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>59</v>
@@ -2591,13 +2604,13 @@
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A47" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C47" s="27" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>59</v>
@@ -2618,13 +2631,13 @@
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.3">
       <c r="A48" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C48" s="27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D48" s="31" t="s">
         <v>59</v>
@@ -2644,13 +2657,13 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C49" s="27" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D49" s="31" t="s">
         <v>59</v>
@@ -2670,13 +2683,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C50" s="27" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D50" s="31" t="s">
         <v>59</v>
@@ -2696,13 +2709,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C51" s="27" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D51" s="31" t="s">
         <v>59</v>
@@ -2722,13 +2735,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>54</v>
       </c>
       <c r="C52" s="27" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D52" s="31" t="s">
         <v>59</v>
@@ -2748,7 +2761,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>29</v>
@@ -2772,13 +2785,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C54" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D54" s="32" t="s">
         <v>59</v>
@@ -2796,183 +2809,199 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C55" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D55" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E55" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F55" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G55" s="15"/>
+      <c r="E55" s="14">
+        <v>-2.2732199999999998</v>
+      </c>
+      <c r="F55" s="14">
+        <v>-78.191469999999995</v>
+      </c>
+      <c r="G55" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="H55" s="15"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C56" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D56" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G56" s="15"/>
+      <c r="E56" s="14">
+        <v>-2.2732199999999998</v>
+      </c>
+      <c r="F56" s="14">
+        <v>-78.191469999999995</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="H56" s="15"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C57" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D57" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E57" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F57" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G57" s="15"/>
+      <c r="E57" s="14">
+        <v>-2.2732199999999998</v>
+      </c>
+      <c r="F57" s="14">
+        <v>-78.191469999999995</v>
+      </c>
+      <c r="G57" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="H57" s="15"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C58" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D58" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G58" s="15"/>
+      <c r="E58" s="14">
+        <v>-2.2732199999999998</v>
+      </c>
+      <c r="F58" s="14">
+        <v>-78.191469999999995</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="H58" s="15"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C59" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D59" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E59" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G59" s="15"/>
+      <c r="E59" s="14">
+        <v>-2.20024</v>
+      </c>
+      <c r="F59" s="14">
+        <v>-78.157749999999993</v>
+      </c>
+      <c r="G59" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="H59" s="15"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C60" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D60" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E60" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G60" s="15"/>
+      <c r="E60" s="14">
+        <v>-2.20024</v>
+      </c>
+      <c r="F60" s="14">
+        <v>-78.157749999999993</v>
+      </c>
+      <c r="G60" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="H60" s="15"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C61" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E61" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G61" s="15"/>
+      <c r="E61" s="14">
+        <v>-2.20024</v>
+      </c>
+      <c r="F61" s="14">
+        <v>-78.157749999999993</v>
+      </c>
+      <c r="G61" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="H61" s="15"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>29</v>
       </c>
       <c r="C62" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G62" s="15"/>
+      <c r="E62" s="14">
+        <v>-2.20024</v>
+      </c>
+      <c r="F62" s="14">
+        <v>-78.157749999999993</v>
+      </c>
+      <c r="G62" s="15" t="s">
+        <v>49</v>
+      </c>
       <c r="H62" s="15"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>30</v>
@@ -2996,189 +3025,205 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C64" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D64" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="E64" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G64" s="15"/>
+      <c r="E64" s="14">
+        <v>-6.4173999999999998</v>
+      </c>
+      <c r="F64" s="14">
+        <v>-77.443290000000005</v>
+      </c>
+      <c r="G64" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H64" s="15"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C65" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D65" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E65" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F65" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G65" s="15"/>
+      <c r="E65" s="14">
+        <v>-6.4173999999999998</v>
+      </c>
+      <c r="F65" s="14">
+        <v>-77.443290000000005</v>
+      </c>
+      <c r="G65" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H65" s="15"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C66" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D66" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E66" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G66" s="15"/>
+      <c r="E66" s="14">
+        <v>-6.4173999999999998</v>
+      </c>
+      <c r="F66" s="14">
+        <v>-77.443290000000005</v>
+      </c>
+      <c r="G66" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H66" s="15"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C67" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D67" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F67" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G67" s="15"/>
+      <c r="E67" s="14">
+        <v>-6.4173999999999998</v>
+      </c>
+      <c r="F67" s="14">
+        <v>-77.443290000000005</v>
+      </c>
+      <c r="G67" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H67" s="15"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C68" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D68" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E68" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G68" s="15"/>
+      <c r="E68" s="14">
+        <v>-6.4173999999999998</v>
+      </c>
+      <c r="F68" s="14">
+        <v>-77.443290000000005</v>
+      </c>
+      <c r="G68" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H68" s="15"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C69" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E69" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G69" s="15"/>
+      <c r="E69" s="14">
+        <v>-6.4173999999999998</v>
+      </c>
+      <c r="F69" s="14">
+        <v>-77.443290000000005</v>
+      </c>
+      <c r="G69" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H69" s="15"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C70" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="E70" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G70" s="15"/>
+      <c r="E70" s="14">
+        <v>-6.4138799999999998</v>
+      </c>
+      <c r="F70" s="14">
+        <v>-77.445049999999995</v>
+      </c>
+      <c r="G70" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H70" s="15"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C71" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D71" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E71" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G71" s="15"/>
+      <c r="E71" s="14">
+        <v>-6.4138799999999998</v>
+      </c>
+      <c r="F71" s="14">
+        <v>-77.445049999999995</v>
+      </c>
+      <c r="G71" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H71" s="15"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B72" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C72" s="28" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D72" s="32" t="s">
         <v>59</v>
@@ -3198,13 +3243,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B73" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C73" s="27" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D73" s="31" t="s">
         <v>59</v>
@@ -3224,13 +3269,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B74" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C74" s="27" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D74" s="31" t="s">
         <v>59</v>
@@ -3250,13 +3295,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B75" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C75" s="27" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D75" s="31" t="s">
         <v>60</v>
@@ -3276,13 +3321,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B76" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C76" s="27" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D76" s="31" t="s">
         <v>59</v>
@@ -3302,13 +3347,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B77" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C77" s="27" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D77" s="31" t="s">
         <v>60</v>
@@ -3328,13 +3373,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B78" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C78" s="27" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D78" s="31" t="s">
         <v>59</v>
@@ -3354,13 +3399,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B79" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C79" s="27" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D79" s="31" t="s">
         <v>59</v>
@@ -3380,13 +3425,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B80" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C80" s="27" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D80" s="31" t="s">
         <v>59</v>
@@ -3406,13 +3451,13 @@
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B81" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C81" s="27" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D81" s="31" t="s">
         <v>59</v>
@@ -3432,13 +3477,13 @@
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B82" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C82" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D82" s="32" t="s">
         <v>59</v>
@@ -3461,13 +3506,13 @@
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B83" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C83" s="27" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D83" s="31" t="s">
         <v>59</v>
@@ -3490,13 +3535,13 @@
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B84" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C84" s="27" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D84" s="31" t="s">
         <v>59</v>
@@ -3519,13 +3564,13 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B85" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C85" s="27" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D85" s="31" t="s">
         <v>60</v>
@@ -3548,13 +3593,13 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B86" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C86" s="27" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D86" s="31" t="s">
         <v>59</v>
@@ -3577,13 +3622,13 @@
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B87" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C87" s="27" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D87" s="31" t="s">
         <v>60</v>
@@ -3606,13 +3651,13 @@
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B88" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C88" s="27" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D88" s="31" t="s">
         <v>59</v>
@@ -3635,13 +3680,13 @@
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B89" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C89" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D89" s="31" t="s">
         <v>60</v>
@@ -3664,13 +3709,13 @@
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B90" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C90" s="27" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D90" s="31" t="s">
         <v>59</v>
@@ -3693,13 +3738,13 @@
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B91" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C91" s="27" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D91" s="31" t="s">
         <v>60</v>
@@ -3722,13 +3767,13 @@
     </row>
     <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B92" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C92" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D92" s="31" t="s">
         <v>59</v>
@@ -3748,13 +3793,13 @@
     </row>
     <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B93" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C93" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D93" s="31" t="s">
         <v>59</v>
@@ -3774,13 +3819,13 @@
     </row>
     <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B94" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C94" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D94" s="31" t="s">
         <v>60</v>
@@ -3800,13 +3845,13 @@
     </row>
     <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B95" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C95" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D95" s="31" t="s">
         <v>59</v>
@@ -3826,13 +3871,13 @@
     </row>
     <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B96" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C96" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D96" s="31" t="s">
         <v>60</v>
@@ -3852,13 +3897,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C97" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D97" s="31" t="s">
         <v>59</v>
@@ -3878,13 +3923,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B98" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C98" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D98" s="31" t="s">
         <v>59</v>
@@ -3904,13 +3949,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B99" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C99" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D99" s="31" t="s">
         <v>59</v>
@@ -3930,13 +3975,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B100" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C100" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D100" s="31" t="s">
         <v>60</v>
@@ -3956,13 +4001,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B101" s="13" t="s">
         <v>26</v>
       </c>
       <c r="C101" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D101" s="31" t="s">
         <v>60</v>
@@ -3982,7 +4027,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A102" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B102" s="13" t="s">
         <v>56</v>
@@ -4006,7 +4051,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A103" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B103" s="13" t="s">
         <v>56</v>
@@ -4030,7 +4075,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A104" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B104" s="13" t="s">
         <v>56</v>
@@ -4054,7 +4099,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A105" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B105" s="13" t="s">
         <v>56</v>
@@ -4078,7 +4123,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A106" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B106" s="13" t="s">
         <v>56</v>
@@ -4102,7 +4147,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A107" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B107" s="13" t="s">
         <v>56</v>
@@ -4126,7 +4171,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A108" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B108" s="13" t="s">
         <v>56</v>
@@ -4150,7 +4195,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A109" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B109" s="13" t="s">
         <v>56</v>
@@ -4174,7 +4219,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A110" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B110" s="13" t="s">
         <v>56</v>
@@ -4198,7 +4243,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A111" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B111" s="13" t="s">
         <v>56</v>
@@ -4222,13 +4267,13 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A112" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B112" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C112" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D112" s="32" t="s">
         <v>59</v>
@@ -4248,13 +4293,13 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B113" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C113" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D113" s="31" t="s">
         <v>59</v>
@@ -4274,13 +4319,13 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B114" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C114" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D114" s="31" t="s">
         <v>60</v>
@@ -4300,13 +4345,13 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B115" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C115" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D115" s="31" t="s">
         <v>59</v>
@@ -4326,13 +4371,13 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B116" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C116" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D116" s="31" t="s">
         <v>60</v>
@@ -4352,13 +4397,13 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B117" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C117" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D117" s="31" t="s">
         <v>59</v>
@@ -4378,13 +4423,13 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B118" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C118" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D118" s="31" t="s">
         <v>59</v>
@@ -4404,13 +4449,13 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B119" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C119" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D119" s="31" t="s">
         <v>59</v>
@@ -4430,13 +4475,13 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B120" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C120" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D120" s="31" t="s">
         <v>59</v>
@@ -4456,13 +4501,13 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B121" s="13" t="s">
         <v>28</v>
       </c>
       <c r="C121" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D121" s="31" t="s">
         <v>59</v>
@@ -4484,7 +4529,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B122" s="13" t="s">
         <v>31</v>
@@ -4510,13 +4555,13 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B123" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C123" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D123" s="31" t="s">
         <v>59</v>
@@ -4536,13 +4581,13 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B124" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C124" s="27" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D124" s="31" t="s">
         <v>59</v>
@@ -4554,7 +4599,7 @@
         <v>-44.283920000000002</v>
       </c>
       <c r="G124" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H124" s="15"/>
       <c r="J124" s="2"/>
@@ -4562,13 +4607,13 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B125" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C125" s="27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D125" s="31" t="s">
         <v>59</v>
@@ -4580,7 +4625,7 @@
         <v>-43.820889000000001</v>
       </c>
       <c r="G125" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H125" s="15"/>
       <c r="J125" s="2"/>
@@ -4588,13 +4633,13 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B126" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C126" s="27" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D126" s="31" t="s">
         <v>59</v>
@@ -4606,7 +4651,7 @@
         <v>-43.820889000000001</v>
       </c>
       <c r="G126" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H126" s="15"/>
       <c r="J126" s="2"/>
@@ -4614,13 +4659,13 @@
     </row>
     <row r="127" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B127" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C127" s="27" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D127" s="31" t="s">
         <v>59</v>
@@ -4632,7 +4677,7 @@
         <v>-44.140332999999998</v>
       </c>
       <c r="G127" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H127" s="15"/>
       <c r="J127" s="2"/>
@@ -4640,13 +4685,13 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B128" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C128" s="27" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D128" s="31" t="s">
         <v>60</v>
@@ -4658,7 +4703,7 @@
         <v>-44.140332999999998</v>
       </c>
       <c r="G128" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H128" s="15"/>
       <c r="J128" s="2"/>
@@ -4666,13 +4711,13 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B129" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C129" s="27" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D129" s="31" t="s">
         <v>59</v>
@@ -4684,7 +4729,7 @@
         <v>-44.140332999999998</v>
       </c>
       <c r="G129" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H129" s="15"/>
       <c r="J129" s="2"/>
@@ -4692,13 +4737,13 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B130" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C130" s="27" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D130" s="31" t="s">
         <v>59</v>
@@ -4710,7 +4755,7 @@
         <v>-44.283920000000002</v>
       </c>
       <c r="G130" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H130" s="15"/>
       <c r="J130" s="2"/>
@@ -4718,13 +4763,13 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B131" s="13" t="s">
         <v>31</v>
       </c>
       <c r="C131" s="27" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D131" s="31" t="s">
         <v>59</v>
@@ -4736,7 +4781,7 @@
         <v>-44.321638999999998</v>
       </c>
       <c r="G131" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H131" s="15"/>
       <c r="J131" s="2"/>
@@ -4744,13 +4789,13 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B132" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C132" s="28" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D132" s="32" t="s">
         <v>59</v>
@@ -4770,13 +4815,13 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B133" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C133" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D133" s="31" t="s">
         <v>60</v>
@@ -4796,13 +4841,13 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B134" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C134" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D134" s="31" t="s">
         <v>60</v>
@@ -4822,13 +4867,13 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B135" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C135" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D135" s="31" t="s">
         <v>59</v>
@@ -4848,13 +4893,13 @@
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B136" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C136" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D136" s="31" t="s">
         <v>59</v>
@@ -4874,13 +4919,13 @@
     </row>
     <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B137" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C137" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D137" s="31" t="s">
         <v>59</v>
@@ -4900,13 +4945,13 @@
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B138" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C138" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D138" s="31" t="s">
         <v>59</v>
@@ -4926,13 +4971,13 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B139" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C139" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D139" s="31" t="s">
         <v>59</v>
@@ -4952,13 +4997,13 @@
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B140" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C140" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D140" s="31" t="s">
         <v>59</v>
@@ -4978,13 +5023,13 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B141" s="13" t="s">
         <v>24</v>
       </c>
       <c r="C141" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D141" s="31" t="s">
         <v>59</v>
@@ -5004,7 +5049,7 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B142" s="13" t="s">
         <v>10</v>
@@ -5030,7 +5075,7 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B143" s="13" t="s">
         <v>10</v>
@@ -5056,7 +5101,7 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B144" s="13" t="s">
         <v>10</v>
@@ -5082,7 +5127,7 @@
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B145" s="13" t="s">
         <v>10</v>
@@ -5108,7 +5153,7 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B146" s="13" t="s">
         <v>10</v>
@@ -5135,7 +5180,7 @@
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B147" s="13" t="s">
         <v>10</v>
@@ -5162,7 +5207,7 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B148" s="13" t="s">
         <v>10</v>
@@ -5189,7 +5234,7 @@
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B149" s="13" t="s">
         <v>10</v>
@@ -5215,7 +5260,7 @@
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B150" s="13" t="s">
         <v>10</v>
@@ -5241,7 +5286,7 @@
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B151" s="13" t="s">
         <v>10</v>
@@ -5267,7 +5312,7 @@
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B152" s="13" t="s">
         <v>10</v>
@@ -5293,13 +5338,13 @@
     </row>
     <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B153" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C153" s="28" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D153" s="32" t="s">
         <v>59</v>
@@ -5321,13 +5366,13 @@
     </row>
     <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B154" s="13" t="s">
         <v>10</v>
       </c>
       <c r="C154" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D154" s="31" t="s">
         <v>60</v>
@@ -5349,7 +5394,7 @@
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B155" s="13" t="s">
         <v>13</v>
@@ -5375,37 +5420,39 @@
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B156" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C156" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D156" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="E156" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="F156" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="G156" s="15"/>
+      <c r="E156" s="14">
+        <v>-6.4173999999999998</v>
+      </c>
+      <c r="F156" s="14">
+        <v>-77.443290000000005</v>
+      </c>
+      <c r="G156" s="15" t="s">
+        <v>46</v>
+      </c>
       <c r="H156" s="15"/>
       <c r="J156" s="2"/>
       <c r="K156" s="2"/>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B157" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C157" s="28" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D157" s="32" t="s">
         <v>59</v>
@@ -5425,13 +5472,13 @@
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B158" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C158" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D158" s="31" t="s">
         <v>59</v>
@@ -5451,13 +5498,13 @@
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B159" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C159" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D159" s="31" t="s">
         <v>59</v>
@@ -5477,13 +5524,13 @@
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B160" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C160" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D160" s="31" t="s">
         <v>59</v>
@@ -5503,13 +5550,13 @@
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B161" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C161" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D161" s="31" t="s">
         <v>59</v>
@@ -5529,13 +5576,13 @@
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B162" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C162" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D162" s="31" t="s">
         <v>59</v>
@@ -5556,13 +5603,13 @@
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B163" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C163" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D163" s="31" t="s">
         <v>59</v>
@@ -5583,13 +5630,13 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B164" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C164" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D164" s="31" t="s">
         <v>59</v>
@@ -5609,13 +5656,13 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B165" s="13" t="s">
         <v>13</v>
       </c>
       <c r="C165" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D165" s="31" t="s">
         <v>59</v>
@@ -5635,7 +5682,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" s="13" t="s">
         <v>2</v>
@@ -5661,7 +5708,7 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B167" s="13" t="s">
         <v>2</v>
@@ -5688,7 +5735,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B168" s="13" t="s">
         <v>2</v>
@@ -5715,7 +5762,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B169" s="13" t="s">
         <v>2</v>
@@ -5742,7 +5789,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B170" s="13" t="s">
         <v>2</v>
@@ -5769,7 +5816,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B171" s="13" t="s">
         <v>2</v>
@@ -5796,13 +5843,13 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B172" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C172" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D172" s="31" t="s">
         <v>59</v>
@@ -5824,13 +5871,13 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B173" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C173" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D173" s="31" t="s">
         <v>60</v>
@@ -5853,13 +5900,13 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B174" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C174" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D174" s="31" t="s">
         <v>59</v>
@@ -5880,13 +5927,13 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B175" s="13" t="s">
         <v>2</v>
       </c>
       <c r="C175" s="27" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D175" s="31" t="s">
         <v>60</v>
@@ -5907,7 +5954,7 @@
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B176" s="13" t="s">
         <v>12</v>
@@ -5934,7 +5981,7 @@
     </row>
     <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B177" s="13" t="s">
         <v>12</v>
@@ -5961,13 +6008,13 @@
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B178" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C178" s="28" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D178" s="32" t="s">
         <v>59</v>
@@ -5990,13 +6037,13 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B179" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C179" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D179" s="31" t="s">
         <v>59</v>
@@ -6019,13 +6066,13 @@
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B180" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C180" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D180" s="31" t="s">
         <v>59</v>
@@ -6047,13 +6094,13 @@
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B181" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C181" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D181" s="31" t="s">
         <v>59</v>
@@ -6075,13 +6122,13 @@
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B182" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C182" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D182" s="31" t="s">
         <v>59</v>
@@ -6103,13 +6150,13 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B183" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C183" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D183" s="31" t="s">
         <v>59</v>
@@ -6132,13 +6179,13 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B184" s="13" t="s">
         <v>12</v>
       </c>
       <c r="C184" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D184" s="31" t="s">
         <v>59</v>
@@ -6161,7 +6208,7 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B185" s="13" t="s">
         <v>9</v>
@@ -6188,7 +6235,7 @@
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B186" s="13" t="s">
         <v>9</v>
@@ -6215,13 +6262,13 @@
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B187" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C187" s="28" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D187" s="32" t="s">
         <v>59</v>
@@ -6244,13 +6291,13 @@
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B188" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C188" s="27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D188" s="31" t="s">
         <v>59</v>
@@ -6273,13 +6320,13 @@
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B189" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C189" s="27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D189" s="31" t="s">
         <v>60</v>
@@ -6302,13 +6349,13 @@
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B190" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C190" s="27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D190" s="31" t="s">
         <v>59</v>
@@ -6331,13 +6378,13 @@
     </row>
     <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B191" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C191" s="27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D191" s="31" t="s">
         <v>59</v>
@@ -6360,13 +6407,13 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B192" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C192" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D192" s="31" t="s">
         <v>59</v>
@@ -6388,13 +6435,13 @@
     </row>
     <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B193" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C193" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D193" s="31" t="s">
         <v>59</v>
@@ -6416,13 +6463,13 @@
     </row>
     <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B194" s="13" t="s">
         <v>9</v>
       </c>
       <c r="C194" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D194" s="31" t="s">
         <v>59</v>
@@ -6444,10 +6491,10 @@
     </row>
     <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B195" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C195" s="27">
         <v>10428369</v>
@@ -6471,10 +6518,10 @@
     </row>
     <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B196" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C196" s="27">
         <v>10428371</v>
@@ -6498,13 +6545,13 @@
     </row>
     <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B197" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C197" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D197" s="31" t="s">
         <v>59</v>
@@ -6527,13 +6574,13 @@
     </row>
     <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B198" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C198" s="28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D198" s="32" t="s">
         <v>59</v>
@@ -6556,13 +6603,13 @@
     </row>
     <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B199" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C199" s="27" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D199" s="31" t="s">
         <v>60</v>
@@ -6585,13 +6632,13 @@
     </row>
     <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B200" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C200" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D200" s="31" t="s">
         <v>59</v>
@@ -6614,13 +6661,13 @@
     </row>
     <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B201" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C201" s="27" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D201" s="31" t="s">
         <v>59</v>
@@ -6643,13 +6690,13 @@
     </row>
     <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B202" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C202" s="28" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D202" s="32" t="s">
         <v>59</v>
@@ -6672,13 +6719,13 @@
     </row>
     <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B203" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C203" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D203" s="31" t="s">
         <v>59</v>
@@ -6701,13 +6748,13 @@
     </row>
     <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B204" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C204" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D204" s="31" t="s">
         <v>59</v>
@@ -6729,13 +6776,13 @@
     </row>
     <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B205" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C205" s="27" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D205" s="31" t="s">
         <v>59</v>
@@ -6757,13 +6804,13 @@
     </row>
     <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B206" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C206" s="27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D206" s="31" t="s">
         <v>59</v>
@@ -6785,13 +6832,13 @@
     </row>
     <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B207" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C207" s="27" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D207" s="31" t="s">
         <v>59</v>
@@ -6813,13 +6860,13 @@
     </row>
     <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B208" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C208" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D208" s="31" t="s">
         <v>59</v>
@@ -6841,13 +6888,13 @@
     </row>
     <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B209" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C209" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D209" s="31" t="s">
         <v>59</v>
@@ -6869,13 +6916,13 @@
     </row>
     <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B210" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C210" s="27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D210" s="31" t="s">
         <v>59</v>
@@ -6895,13 +6942,13 @@
     </row>
     <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B211" s="13" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C211" s="27" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D211" s="31" t="s">
         <v>59</v>
@@ -6921,7 +6968,7 @@
     </row>
     <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B212" s="13" t="s">
         <v>15</v>
@@ -6949,7 +6996,7 @@
     </row>
     <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B213" s="13" t="s">
         <v>15</v>
@@ -6977,7 +7024,7 @@
     </row>
     <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B214" s="13" t="s">
         <v>15</v>
@@ -7006,7 +7053,7 @@
     </row>
     <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B215" s="13" t="s">
         <v>15</v>
@@ -7035,7 +7082,7 @@
     </row>
     <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B216" s="13" t="s">
         <v>15</v>
@@ -7064,7 +7111,7 @@
     </row>
     <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B217" s="13" t="s">
         <v>15</v>
@@ -7090,7 +7137,7 @@
     </row>
     <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B218" s="13" t="s">
         <v>15</v>
@@ -7116,7 +7163,7 @@
     </row>
     <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B219" s="13" t="s">
         <v>15</v>
@@ -7142,13 +7189,13 @@
     </row>
     <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B220" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C220" s="27" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D220" s="31" t="s">
         <v>59</v>
@@ -7160,7 +7207,7 @@
         <v>-40.139721999999999</v>
       </c>
       <c r="G220" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H220" s="15">
         <v>2010</v>
@@ -7168,13 +7215,13 @@
     </row>
     <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B221" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C221" s="27" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D221" s="31" t="s">
         <v>59</v>
@@ -7186,7 +7233,7 @@
         <v>-40.139721999999999</v>
       </c>
       <c r="G221" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H221" s="15">
         <v>2010</v>
@@ -7194,13 +7241,13 @@
     </row>
     <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B222" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D222" s="31" t="s">
         <v>60</v>
@@ -7212,7 +7259,7 @@
         <v>-40.139721999999999</v>
       </c>
       <c r="G222" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H222" s="15">
         <v>2010</v>
@@ -7220,13 +7267,13 @@
     </row>
     <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B223" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D223" s="31" t="s">
         <v>59</v>
@@ -7238,7 +7285,7 @@
         <v>-40.910277999999998</v>
       </c>
       <c r="G223" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H223" s="15">
         <v>2011</v>
@@ -7246,13 +7293,13 @@
     </row>
     <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B224" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D224" s="31" t="s">
         <v>59</v>
@@ -7264,7 +7311,7 @@
         <v>-40.910277999999998</v>
       </c>
       <c r="G224" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H224" s="15">
         <v>2011</v>
@@ -7272,13 +7319,13 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A225" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B225" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D225" s="31" t="s">
         <v>59</v>
@@ -7290,7 +7337,7 @@
         <v>-40.910277999999998</v>
       </c>
       <c r="G225" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H225" s="15">
         <v>2011</v>
@@ -7298,13 +7345,13 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A226" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B226" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D226" s="31" t="s">
         <v>59</v>
@@ -7316,7 +7363,7 @@
         <v>-40.910277999999998</v>
       </c>
       <c r="G226" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H226" s="15">
         <v>2011</v>
@@ -7324,13 +7371,13 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A227" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B227" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D227" s="31" t="s">
         <v>59</v>
@@ -7342,7 +7389,7 @@
         <v>-40.910277999999998</v>
       </c>
       <c r="G227" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H227" s="15">
         <v>2011</v>
@@ -7350,13 +7397,13 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A228" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B228" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D228" s="31" t="s">
         <v>60</v>
@@ -7368,7 +7415,7 @@
         <v>-40.910277999999998</v>
       </c>
       <c r="G228" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H228" s="15">
         <v>2011</v>
@@ -7376,13 +7423,13 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A229" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B229" s="13" t="s">
         <v>14</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D229" s="31" t="s">
         <v>59</v>
@@ -7394,7 +7441,7 @@
         <v>-40.910277999999998</v>
       </c>
       <c r="G229" s="15" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H229" s="15">
         <v>2011</v>
@@ -7402,13 +7449,13 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A230" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B230" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C230" s="28" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D230" s="32" t="s">
         <v>60</v>
@@ -7428,13 +7475,13 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A231" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B231" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D231" s="31" t="s">
         <v>60</v>
@@ -7454,13 +7501,13 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A232" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B232" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D232" s="31" t="s">
         <v>59</v>
@@ -7480,13 +7527,13 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A233" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B233" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D233" s="31" t="s">
         <v>59</v>
@@ -7506,13 +7553,13 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A234" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B234" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D234" s="31" t="s">
         <v>59</v>
@@ -7532,13 +7579,13 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A235" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B235" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D235" s="31" t="s">
         <v>60</v>
@@ -7558,13 +7605,13 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A236" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B236" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D236" s="31" t="s">
         <v>59</v>
@@ -7584,13 +7631,13 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A237" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B237" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D237" s="31" t="s">
         <v>60</v>
@@ -7610,13 +7657,13 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A238" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B238" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D238" s="31" t="s">
         <v>60</v>
@@ -7636,13 +7683,13 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A239" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B239" s="13" t="s">
         <v>11</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D239" s="31" t="s">
         <v>59</v>
@@ -7662,13 +7709,13 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A240" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B240" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C240" s="28" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D240" s="32" t="s">
         <v>60</v>
@@ -7688,13 +7735,13 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A241" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B241" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D241" s="31" t="s">
         <v>59</v>
@@ -7714,13 +7761,13 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A242" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B242" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D242" s="31" t="s">
         <v>59</v>
@@ -7738,13 +7785,13 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A243" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B243" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D243" s="31" t="s">
         <v>59</v>
@@ -7764,13 +7811,13 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A244" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B244" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D244" s="31" t="s">
         <v>59</v>
@@ -7790,13 +7837,13 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A245" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B245" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D245" s="31" t="s">
         <v>60</v>
@@ -7816,13 +7863,13 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A246" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B246" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D246" s="31" t="s">
         <v>60</v>
@@ -7842,13 +7889,13 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A247" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B247" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D247" s="31" t="s">
         <v>59</v>
@@ -7868,13 +7915,13 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A248" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B248" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D248" s="31" t="s">
         <v>59</v>
@@ -7894,13 +7941,13 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A249" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B249" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D249" s="31" t="s">
         <v>59</v>
@@ -7920,7 +7967,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A250" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B250" s="13" t="s">
         <v>55</v>
@@ -7944,7 +7991,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A251" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B251" s="13" t="s">
         <v>55</v>
@@ -7968,7 +8015,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A252" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B252" s="13" t="s">
         <v>55</v>
@@ -7992,7 +8039,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A253" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B253" s="13" t="s">
         <v>55</v>
@@ -8016,7 +8063,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A254" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B254" s="13" t="s">
         <v>55</v>
@@ -8040,7 +8087,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A255" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B255" s="13" t="s">
         <v>55</v>
@@ -8064,7 +8111,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A256" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B256" s="13" t="s">
         <v>55</v>
@@ -8088,7 +8135,7 @@
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A257" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B257" s="13" t="s">
         <v>55</v>
@@ -8112,7 +8159,7 @@
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A258" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B258" s="13" t="s">
         <v>55</v>
@@ -8136,7 +8183,7 @@
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A259" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B259" s="13" t="s">
         <v>55</v>
@@ -8160,7 +8207,7 @@
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A260" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B260" s="13" t="s">
         <v>55</v>
@@ -8184,7 +8231,7 @@
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A261" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B261" s="13" t="s">
         <v>55</v>
@@ -8208,7 +8255,7 @@
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A262" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B262" s="13" t="s">
         <v>55</v>
@@ -8232,7 +8279,7 @@
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A263" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B263" s="13" t="s">
         <v>55</v>
@@ -8256,13 +8303,13 @@
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A264" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B264" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C264" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D264" s="31" t="s">
         <v>59</v>
@@ -8282,13 +8329,13 @@
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A265" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B265" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C265" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D265" s="31" t="s">
         <v>59</v>
@@ -8309,13 +8356,13 @@
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A266" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B266" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C266" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D266" s="31" t="s">
         <v>59</v>
@@ -8335,13 +8382,13 @@
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A267" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B267" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C267" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D267" s="31" t="s">
         <v>59</v>
@@ -8361,13 +8408,13 @@
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A268" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B268" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C268" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D268" s="31" t="s">
         <v>59</v>
@@ -8387,13 +8434,13 @@
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A269" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B269" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C269" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D269" s="31" t="s">
         <v>59</v>
@@ -8413,13 +8460,13 @@
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A270" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B270" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C270" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D270" s="31" t="s">
         <v>59</v>
@@ -8440,13 +8487,13 @@
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A271" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B271" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C271" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D271" s="31" t="s">
         <v>59</v>
@@ -8466,13 +8513,13 @@
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A272" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B272" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C272" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D272" s="31" t="s">
         <v>59</v>
@@ -8492,13 +8539,13 @@
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A273" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B273" s="13" t="s">
         <v>1</v>
       </c>
       <c r="C273" s="27" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D273" s="31" t="s">
         <v>59</v>
@@ -8519,13 +8566,13 @@
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A274" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B274" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C274" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D274" s="31" t="s">
         <v>59</v>
@@ -8543,13 +8590,13 @@
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A275" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B275" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C275" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D275" s="31" t="s">
         <v>59</v>
@@ -8567,13 +8614,13 @@
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A276" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B276" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C276" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D276" s="31" t="s">
         <v>59</v>
@@ -8591,13 +8638,13 @@
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A277" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B277" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C277" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D277" s="31" t="s">
         <v>59</v>
@@ -8616,13 +8663,13 @@
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A278" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B278" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C278" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D278" s="31" t="s">
         <v>59</v>
@@ -8641,13 +8688,13 @@
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A279" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B279" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C279" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D279" s="31" t="s">
         <v>59</v>
@@ -8666,13 +8713,13 @@
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A280" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B280" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C280" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D280" s="31" t="s">
         <v>59</v>
@@ -8691,13 +8738,13 @@
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A281" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B281" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C281" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D281" s="31" t="s">
         <v>59</v>
@@ -8716,13 +8763,13 @@
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A282" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B282" s="13" t="s">
         <v>57</v>
       </c>
       <c r="C282" s="27" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D282" s="31" t="s">
         <v>59</v>
